--- a/uploads/CourseStatusReport.xlsx
+++ b/uploads/CourseStatusReport.xlsx
@@ -322,13 +322,7 @@
           </r>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
+      <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr">
         <is>
           <r>
@@ -408,13 +402,7 @@
           </r>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
+      <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
           <r>
@@ -424,390 +412,46 @@
       </c>
     </row>
     <row r="4" customHeight="1" ht="30">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">سارث راج رجيندرا</t>
-          </r>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">4077</t>
-          </r>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">NewCourse3</t>
-          </r>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">1/8/20 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8/28/20 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">15637067</t>
-          </r>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">مهندس حاسب الي اول</t>
-          </r>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">إدارة نظم المعلومات</t>
-          </r>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">107</t>
-          </r>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Applied</t>
-          </r>
-        </is>
-      </c>
+      <c r="A4" s="3" t="inlineStr"/>
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
     </row>
     <row r="5" customHeight="1" ht="30">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">فاطمه صقر محمد علي</t>
-          </r>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">1622</t>
-          </r>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Excel Course 0311</t>
-          </r>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">11/29/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12/4/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">15617208</t>
-          </r>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">اخصائي شؤون مالية  اول</t>
-          </r>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ادارة الشؤون المالية والادارية</t>
-          </r>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">101</t>
-          </r>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Applied</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="6" customHeight="1" ht="30">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ايمن فتحي محمد نبهان</t>
-          </r>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">2608</t>
-          </r>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ش دورة تجريبية 4</t>
-          </r>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12/12/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12/18/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">15617447</t>
-          </r>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">مصمم شبكات اول</t>
-          </r>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">إدارة نظم المعلومات</t>
-          </r>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">133</t>
-          </r>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Applied</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="30">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ايمن فتحي محمد نبهان</t>
-          </r>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">2608</t>
-          </r>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ش دورة تجريبية 4</t>
-          </r>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12/12/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12/18/19 12:00 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">15617447</t>
-          </r>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">مصمم شبكات اول</t>
-          </r>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">إدارة نظم المعلومات</t>
-          </r>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">133</t>
-          </r>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">APPROVED</t>
-          </r>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Applied</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="8" customHeight="1" ht="30">
-      <c r="A8" s="3" t="inlineStr"/>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9" customHeight="1" ht="30">
-      <c r="A9" s="4" t="inlineStr"/>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10" customHeight="1" ht="141">
-      <c r="A10" s="5" t="inlineStr"/>
-      <c r="B10" s="5" t="inlineStr"/>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="171">
+      <c r="A6" s="5" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
